--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2300.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2300.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>3.144994823543088</v>
+        <v>1.140781164169312</v>
       </c>
       <c r="B1">
-        <v>2.922217568299783</v>
+        <v>2.186646461486816</v>
       </c>
       <c r="C1">
-        <v>2.601447677385482</v>
+        <v>2.926440238952637</v>
       </c>
       <c r="D1">
-        <v>2.864979157161267</v>
+        <v>1.395778298377991</v>
       </c>
       <c r="E1">
-        <v>3.16441508591798</v>
+        <v>1.020025849342346</v>
       </c>
     </row>
   </sheetData>
